--- a/NFLStats/K/K_aggregate.xlsx
+++ b/NFLStats/K/K_aggregate.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCFFCC"/>
         <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBD"/>
+        <bgColor rgb="00FFFFBD"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,12 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +536,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Carlson</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>52.66666666666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Carlson</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>87.86666666666667</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Carlson</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1.066666666666677</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>2.333333333333336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Butker</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>90.46666666666665</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>56.66666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Butker</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>84.43333333333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>58.33333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Harrison Butker</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-6.033333333333317</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1.666666666666671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>BrandonMcManus</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>83.86666666666666</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>57.33333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>BrandonMcManus</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>84.69999999999999</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>55.33333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>BrandonMcManus</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.8333333333333286</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
